--- a/sem5/bd/5/tablici.xlsx
+++ b/sem5/bd/5/tablici.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301CE05A-0A55-4D16-8834-6F16E4B3026D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>Работники</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Дата рождения</t>
-  </si>
-  <si>
-    <t>Телефон</t>
   </si>
   <si>
     <t>Ковалев Михаил Игоревич</t>
@@ -271,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -391,38 +388,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -704,11 +684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,71 +721,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="M2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -813,44 +786,41 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>36141</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="17">
+        <v>55</v>
+      </c>
+      <c r="G3" s="11">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="3">
         <v>32489</v>
       </c>
-      <c r="J3" s="25">
-        <v>1</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="18">
-        <v>1</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3">
+        <v>37602</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" s="8">
-        <v>37602</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -858,44 +828,41 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>36693</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="17">
+        <v>56</v>
+      </c>
+      <c r="G4" s="11">
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3">
         <v>37423</v>
       </c>
-      <c r="J4" s="25">
-        <v>2</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="18">
-        <v>2</v>
-      </c>
-      <c r="M4" s="15" t="s">
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="12">
+        <v>2</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3">
+        <v>32234</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="N4" s="8">
-        <v>32234</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -903,44 +870,41 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>37220</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="17">
+        <v>57</v>
+      </c>
+      <c r="G5" s="11">
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="3">
         <v>40872</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="18">
+      <c r="K5" s="13"/>
+      <c r="L5" s="12">
         <v>3</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="M5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3">
         <v>36371</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>38</v>
+      <c r="O5" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -948,44 +912,41 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>36414</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="17">
+        <v>58</v>
+      </c>
+      <c r="G6" s="11">
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="3">
         <v>40432</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="18">
+      <c r="K6" s="13"/>
+      <c r="L6" s="12">
         <v>4</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="M6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="3">
         <v>36967</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>39</v>
+      <c r="O6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -993,142 +954,139 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>37605</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="18">
+        <v>59</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="12">
         <v>5</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="M7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="3">
         <v>31317</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>40</v>
+      <c r="O7" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="L8" s="18">
+      <c r="L8" s="12">
         <v>6</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="M8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="3">
         <v>37602</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>41</v>
+      <c r="O8" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="O10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="O10" s="10" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="P11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>2</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
@@ -1139,11 +1097,11 @@
       <c r="H12" s="2">
         <v>2</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="11">
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12" s="2">
         <v>1</v>
@@ -1153,11 +1111,11 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="11">
         <v>3</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>9</v>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -1169,11 +1127,11 @@
       <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="11">
         <v>2</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O13" s="2">
         <v>1</v>
@@ -1183,11 +1141,11 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="11">
         <v>4</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>11</v>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -1199,11 +1157,11 @@
       <c r="H14" s="2">
         <v>4</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="11">
         <v>3</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O14" s="2">
         <v>1</v>
@@ -1213,11 +1171,11 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="11">
         <v>5</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>13</v>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -1231,20 +1189,20 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="11">
         <v>6</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>18</v>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1256,10 +1214,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="G17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -1274,103 +1232,103 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="G18" s="23">
+      <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="I19" s="14">
+        <v>35848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="23">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G20" s="11">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="24">
-        <v>35848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="I20" s="14">
+        <v>36855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G21" s="11">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="14">
+        <v>32762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>3</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="24">
-        <v>36855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="23">
-        <v>4</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="24">
-        <v>32762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">

--- a/sem5/bd/5/tablici.xlsx
+++ b/sem5/bd/5/tablici.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301CE05A-0A55-4D16-8834-6F16E4B3026D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C504282-16D8-42C3-A578-1EA5A05ADD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>Работники</t>
   </si>
@@ -263,6 +263,39 @@
   </si>
   <si>
     <t>Правонарушения Работников</t>
+  </si>
+  <si>
+    <t>Специальности</t>
+  </si>
+  <si>
+    <t>ID Специальности</t>
+  </si>
+  <si>
+    <t>Зарплата</t>
+  </si>
+  <si>
+    <t>Слесарь</t>
+  </si>
+  <si>
+    <t>Электрик</t>
+  </si>
+  <si>
+    <t>Клоун</t>
+  </si>
+  <si>
+    <t>Оторинолоринголог</t>
+  </si>
+  <si>
+    <t>100$</t>
+  </si>
+  <si>
+    <t>150$</t>
+  </si>
+  <si>
+    <t>300$</t>
+  </si>
+  <si>
+    <t>400$</t>
   </si>
 </sst>
 </file>
@@ -380,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -405,6 +438,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -685,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +732,7 @@
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
@@ -732,7 +767,7 @@
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="J1" s="17"/>
       <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
@@ -753,6 +788,9 @@
       <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="E2" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>49</v>
       </c>
@@ -762,9 +800,7 @@
       <c r="I2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="J2" s="17"/>
       <c r="L2" s="11" t="s">
         <v>46</v>
       </c>
@@ -794,6 +830,9 @@
       <c r="D3" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
       <c r="G3" s="11">
         <v>1</v>
       </c>
@@ -803,9 +842,7 @@
       <c r="I3" s="3">
         <v>32489</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
+      <c r="J3" s="17"/>
       <c r="K3" s="13"/>
       <c r="L3" s="12">
         <v>1</v>
@@ -836,6 +873,9 @@
       <c r="D4" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
       <c r="G4" s="11">
         <v>2</v>
       </c>
@@ -845,9 +885,7 @@
       <c r="I4" s="3">
         <v>37423</v>
       </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
+      <c r="J4" s="17"/>
       <c r="K4" s="13"/>
       <c r="L4" s="12">
         <v>2</v>
@@ -878,6 +916,9 @@
       <c r="D5" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
       <c r="G5" s="11">
         <v>3</v>
       </c>
@@ -887,9 +928,7 @@
       <c r="I5" s="3">
         <v>40872</v>
       </c>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="13"/>
       <c r="L5" s="12">
         <v>3</v>
@@ -920,6 +959,9 @@
       <c r="D6" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
       <c r="G6" s="11">
         <v>4</v>
       </c>
@@ -929,9 +971,7 @@
       <c r="I6" s="3">
         <v>40432</v>
       </c>
-      <c r="J6" s="2">
-        <v>4</v>
-      </c>
+      <c r="J6" s="17"/>
       <c r="K6" s="13"/>
       <c r="L6" s="12">
         <v>4</v>
@@ -961,6 +1001,9 @@
       </c>
       <c r="D7" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1206,6 +1249,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="O16" s="2">
         <v>2</v>
       </c>
@@ -1223,6 +1267,9 @@
       <c r="I17" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="J17" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="O17" s="2">
         <v>5</v>
       </c>
@@ -1245,6 +1292,9 @@
       <c r="I18" s="14" t="s">
         <v>69</v>
       </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -1265,6 +1315,9 @@
       <c r="I19" s="14">
         <v>35848</v>
       </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -1285,6 +1338,9 @@
       <c r="I20" s="14">
         <v>36855</v>
       </c>
+      <c r="J20" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -1304,6 +1360,9 @@
       </c>
       <c r="I21" s="14">
         <v>32762</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1353,6 +1412,68 @@
       </c>
       <c r="B28" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
